--- a/data/Concentrations.xlsx
+++ b/data/Concentrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sicil\LiverModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0875CD3-FB62-4229-87D0-C669A7C82A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D037D-CBEC-470A-BDA4-B115E2F411E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41580" yWindow="375" windowWidth="21600" windowHeight="11175" xr2:uid="{BD44396D-9097-46EF-8A84-D443D1E1131F}"/>
+    <workbookView xWindow="36000" yWindow="15" windowWidth="21600" windowHeight="11175" xr2:uid="{BD44396D-9097-46EF-8A84-D443D1E1131F}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>D-Xylulose 5-phosphate</t>
+  </si>
+  <si>
+    <t>Concentration (M)</t>
   </si>
 </sst>
 </file>
@@ -929,21 +932,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499C6EE-ACAE-44CD-AB3C-92B9E8A03770}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -954,10 +957,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -967,11 +973,15 @@
       <c r="C2" s="4">
         <v>0.110560855</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4">
+        <f>C2/1000</f>
+        <v>1.10560855E-4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -979,9 +989,13 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D66" si="0">C3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -989,9 +1003,13 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1001,9 +1019,13 @@
       <c r="C5" s="4">
         <v>0.52063048499999998</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2063048500000002E-4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1013,9 +1035,13 @@
       <c r="C6" s="4">
         <v>6.0838000000000005E-4</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0838000000000005E-7</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1025,9 +1051,13 @@
       <c r="C7" s="4">
         <v>1.0574603600000001</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0574603600000002E-3</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1037,9 +1067,13 @@
       <c r="C8" s="4">
         <v>1.0574603600000001</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0574603600000002E-3</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1049,9 +1083,13 @@
       <c r="C9" s="4">
         <v>0.83300876999999995</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3300876999999995E-4</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1061,9 +1099,13 @@
       <c r="C10" s="4">
         <v>0.69666191500000008</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9666191500000003E-4</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1073,9 +1115,13 @@
       <c r="C11" s="4">
         <v>1.3732010000000001</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3732010000000001E-3</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1085,9 +1131,13 @@
       <c r="C12" s="4">
         <v>1.9949519500000001</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9949519500000001E-3</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1097,9 +1147,13 @@
       <c r="C13" s="4">
         <v>8.0389058000000002</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.038905800000001E-3</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1109,9 +1163,13 @@
       <c r="C14" s="4">
         <v>0.63818179499999994</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3818179499999989E-4</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1121,9 +1179,13 @@
       <c r="C15" s="4">
         <v>1.605</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6050000000000001E-3</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1133,8 +1195,12 @@
       <c r="C16" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1144,8 +1210,12 @@
       <c r="C17" s="4">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1153,8 +1223,12 @@
         <v>30</v>
       </c>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1164,8 +1238,12 @@
       <c r="C19" s="4">
         <v>5.6157894999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6157894999999999E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1175,8 +1253,12 @@
       <c r="C20" s="4">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1184,8 +1266,12 @@
         <v>37</v>
       </c>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1195,8 +1281,12 @@
       <c r="C22" s="4">
         <v>8.5449999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5450000000000005E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1206,8 +1296,12 @@
       <c r="C23" s="4">
         <v>3.7829256</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7829256000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -1217,8 +1311,12 @@
       <c r="C24" s="4">
         <v>4.7271459799999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7271459799999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -1228,15 +1326,23 @@
       <c r="C25" s="4">
         <v>9.19</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -1246,8 +1352,12 @@
       <c r="C27" s="4">
         <v>2.2182368400000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2182368400000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -1257,8 +1367,12 @@
       <c r="C28" s="4">
         <v>2.2182368400000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2182368400000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -1268,8 +1382,12 @@
       <c r="C29" s="4">
         <v>3.1120834999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1120834999999998E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1279,8 +1397,12 @@
       <c r="C30" s="4">
         <v>1.0681774499999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>1.06817745E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -1290,8 +1412,12 @@
       <c r="C31" s="4">
         <v>6.0226752000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0226752E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1301,8 +1427,12 @@
       <c r="C32" s="4">
         <v>0.15092434499999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5092434499999998E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1312,8 +1442,12 @@
       <c r="C33" s="4">
         <v>0.15092434499999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5092434499999998E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -1323,8 +1457,12 @@
       <c r="C34" s="4">
         <v>5.4913815000000005E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4913815000000004E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1334,8 +1472,12 @@
       <c r="C35" s="4">
         <v>1.543201</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5432010000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -1343,8 +1485,12 @@
       <c r="C36" s="4">
         <v>0.40597477999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0597478E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
@@ -1352,8 +1498,12 @@
       <c r="C37" s="4">
         <v>0.40597477999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0597478E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -1363,8 +1513,12 @@
       <c r="C38" s="4">
         <v>0.17689737000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7689737000000004E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -1374,8 +1528,12 @@
       <c r="C39" s="4">
         <v>7.0197350000000009E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0197350000000006E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>67</v>
       </c>
@@ -1383,8 +1541,12 @@
         <v>68</v>
       </c>
       <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>69</v>
       </c>
@@ -1394,8 +1556,12 @@
       <c r="C41" s="4">
         <v>3.486469295</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>3.486469295E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>71</v>
       </c>
@@ -1405,8 +1571,12 @@
       <c r="C42" s="4">
         <v>0.12713764999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2713764999999999E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>73</v>
       </c>
@@ -1416,8 +1586,12 @@
       <c r="C43" s="4">
         <v>5.1470825000000005E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1470825000000004E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
@@ -1427,8 +1601,12 @@
       <c r="C44" s="4">
         <v>0.52990755499999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2990755499999998E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -1438,8 +1616,12 @@
       <c r="C45" s="4">
         <v>8.4280308000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4280307999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>78</v>
       </c>
@@ -1449,8 +1631,12 @@
       <c r="C46" s="4">
         <v>0.134490625</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3449062499999999E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>78</v>
       </c>
@@ -1460,8 +1646,12 @@
       <c r="C47" s="4">
         <v>0.134490625</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3449062499999999E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
@@ -1471,8 +1661,12 @@
       <c r="C48" s="4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
@@ -1482,8 +1676,12 @@
       <c r="C49" s="4">
         <v>0.38655350499999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8655350499999997E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
@@ -1493,8 +1691,12 @@
       <c r="C50" s="4">
         <v>10.48280703</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0482807029999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -1504,8 +1706,12 @@
       <c r="C51" s="4">
         <v>10.48280703</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0482807029999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>86</v>
       </c>
@@ -1515,8 +1721,12 @@
       <c r="C52" s="4">
         <v>7.7262061499999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7262061499999996E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
@@ -1526,8 +1736,12 @@
       <c r="C53" s="4">
         <v>7.0549999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0549999999999996E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>90</v>
       </c>
@@ -1537,8 +1751,12 @@
       <c r="C54" s="4">
         <v>13.795</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3795E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>91</v>
       </c>
@@ -1548,8 +1766,12 @@
       <c r="C55" s="4">
         <v>0.175394735</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7539473499999999E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>93</v>
       </c>
@@ -1559,8 +1781,12 @@
       <c r="C56" s="4">
         <v>0.91531863000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1531863000000001E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
@@ -1570,8 +1796,12 @@
       <c r="C57" s="4">
         <v>1.0061625000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0061625E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>97</v>
       </c>
@@ -1581,8 +1811,12 @@
       <c r="C58" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000004E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>99</v>
       </c>
@@ -1592,8 +1826,12 @@
       <c r="C59" s="4">
         <v>3.2618377199999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2618377199999998E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
@@ -1603,8 +1841,12 @@
       <c r="C60" s="4">
         <v>1.5219999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5219999999999997E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -1614,15 +1856,23 @@
       <c r="C61" s="4">
         <v>2.703530905</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7035309049999998E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>105</v>
       </c>
@@ -1630,8 +1880,12 @@
       <c r="C63" s="4">
         <v>3.1999999999999999E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="D63" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -1641,8 +1895,12 @@
       <c r="C64" s="4">
         <v>1.8253097199999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="D64" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8253097199999999E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>108</v>
       </c>
@@ -1652,8 +1910,12 @@
       <c r="C65" s="4">
         <v>8.3377299999999998E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.35">
+      <c r="D65" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3377300000000002E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>110</v>
       </c>
@@ -1663,8 +1925,12 @@
       <c r="C66" s="4">
         <v>4.6354199999999995E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="51" x14ac:dyDescent="0.35">
+      <c r="D66" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6354199999999994E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>112</v>
       </c>
@@ -1674,8 +1940,12 @@
       <c r="C67" s="4">
         <v>0.288577105</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="51" x14ac:dyDescent="0.35">
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D94" si="1">C67/1000</f>
+        <v>2.88577105E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>114</v>
       </c>
@@ -1685,8 +1955,12 @@
       <c r="C68" s="4">
         <v>0.47523618499999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="51" x14ac:dyDescent="0.35">
+      <c r="D68" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7523618499999999E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>116</v>
       </c>
@@ -1696,8 +1970,12 @@
       <c r="C69" s="4">
         <v>0.89099330500000007</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="4">
+        <f t="shared" si="1"/>
+        <v>8.9099330500000005E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>117</v>
       </c>
@@ -1707,8 +1985,12 @@
       <c r="C70" s="4">
         <v>1.3138607449999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3138607449999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>119</v>
       </c>
@@ -1718,8 +2000,12 @@
       <c r="C71" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000003E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>120</v>
       </c>
@@ -1727,8 +2013,12 @@
         <v>121</v>
       </c>
       <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>122</v>
       </c>
@@ -1736,8 +2026,12 @@
         <v>121</v>
       </c>
       <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>123</v>
       </c>
@@ -1747,8 +2041,12 @@
       <c r="C74" s="4">
         <v>1.4488599999999999E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" s="4">
+        <f t="shared" si="1"/>
+        <v>1.44886E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>125</v>
       </c>
@@ -1758,8 +2056,12 @@
       <c r="C75" s="4">
         <v>3.1189999999999999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1189999999999998E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>127</v>
       </c>
@@ -1769,8 +2071,12 @@
       <c r="C76" s="4">
         <v>3.6281743850000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6281743850000003E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>129</v>
       </c>
@@ -1780,8 +2086,12 @@
       <c r="C77" s="4">
         <v>3.6281743850000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D77" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6281743850000003E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>130</v>
       </c>
@@ -1791,8 +2101,12 @@
       <c r="C78" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D78" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>132</v>
       </c>
@@ -1802,8 +2116,12 @@
       <c r="C79" s="4">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>133</v>
       </c>
@@ -1813,8 +2131,12 @@
       <c r="C80" s="4">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>135</v>
       </c>
@@ -1824,8 +2146,12 @@
       <c r="C81" s="4">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>136</v>
       </c>
@@ -1835,8 +2161,12 @@
       <c r="C82" s="4">
         <v>9.7441227999999995</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7441227999999994E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>137</v>
       </c>
@@ -1846,8 +2176,12 @@
       <c r="C83" s="4">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>139</v>
       </c>
@@ -1857,8 +2191,12 @@
       <c r="C84" s="4">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D84" s="4">
+        <f t="shared" si="1"/>
+        <v>1.34E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>140</v>
       </c>
@@ -1868,8 +2206,12 @@
       <c r="C85" s="4">
         <v>7.7217099999999997E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D85" s="4">
+        <f t="shared" si="1"/>
+        <v>7.72171E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>142</v>
       </c>
@@ -1879,8 +2221,12 @@
       <c r="C86" s="4">
         <v>2.8429934999999996E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D86" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8429934999999996E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>144</v>
       </c>
@@ -1890,8 +2236,12 @@
       <c r="C87" s="4">
         <v>8.1896930000000007E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1896930000000001E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>146</v>
       </c>
@@ -1901,8 +2251,12 @@
       <c r="C88" s="4">
         <v>0.63343547499999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3343547499999995E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>148</v>
       </c>
@@ -1912,8 +2266,12 @@
       <c r="C89" s="4">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D89" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>150</v>
       </c>
@@ -1923,8 +2281,12 @@
       <c r="C90" s="4">
         <v>0.31588815999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1588815999999997E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>152</v>
       </c>
@@ -1934,8 +2296,12 @@
       <c r="C91" s="4">
         <v>0.67978070000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7978069999999997E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>154</v>
       </c>
@@ -1945,8 +2311,12 @@
       <c r="C92" s="4">
         <v>31.939802645</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D92" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1939802645000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>156</v>
       </c>
@@ -1956,8 +2326,12 @@
       <c r="C93" s="4">
         <v>0.88214693</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="D93" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8214692999999996E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>158</v>
       </c>
@@ -1967,10 +2341,14 @@
       <c r="C94" s="4">
         <v>4.2703400000000002E-2</v>
       </c>
+      <c r="D94" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2703400000000002E-5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
